--- a/ch-4.xlsx
+++ b/ch-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\hf-da-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE6736-663C-4309-B5F9-460B30A546F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CD059F-CAA6-42F2-B232-374715DC8320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{5C2719E0-E2FB-4843-932C-16C5D418CA12}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{5C2719E0-E2FB-4843-932C-16C5D418CA12}"/>
   </bookViews>
   <sheets>
     <sheet name="comics_1" sheetId="4" r:id="rId1"/>
@@ -44,6 +44,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D1D6F899-DFAD-40F7-8B42-05DFE1C147B9}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D1D6F899-DFAD-40F7-8B42-05DFE1C147B9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Sort to find oldest book
+Reply:
+    All the books they read for the year</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>George Mount</author>
@@ -9639,17 +9659,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -9679,6 +9689,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="George Mount" id="{8B044CDA-BAD8-461C-9EC7-FF8DFBEF59E2}" userId="George Mount" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9714,7 +9730,7 @@
   <autoFilter ref="A1:D21" xr:uid="{F7CAE25F-F91F-4A10-954E-498BFF4357A3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AA139580-1C03-4549-9B32-90C5D26C77A1}" name="id"/>
-    <tableColumn id="6" xr3:uid="{76D83E04-C701-4030-98D0-36B661515267}" name="town" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{76D83E04-C701-4030-98D0-36B661515267}" name="town" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{EB0BC5C9-AC84-42C4-93AA-BB1D5B510B5C}" name="population"/>
     <tableColumn id="4" xr3:uid="{52D796AB-13E5-49D4-B975-60C233AE6D3A}" name="area_miles"/>
   </tableColumns>
@@ -9729,7 +9745,7 @@
     <sortCondition ref="A1:A20"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C9378776-4555-405B-90FD-E4C2C1918B9B}" name="time" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C9378776-4555-405B-90FD-E4C2C1918B9B}" name="time" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{C15F5227-15C3-43FB-B061-2F6B598E7D6C}" name="tailnum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10045,12 +10061,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2022-07-19T15:18:25.71" personId="{8B044CDA-BAD8-461C-9EC7-FF8DFBEF59E2}" id="{D1D6F899-DFAD-40F7-8B42-05DFE1C147B9}">
+    <text>Sort to find oldest book</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2022-07-19T15:37:08.78" personId="{8B044CDA-BAD8-461C-9EC7-FF8DFBEF59E2}" id="{D1B5DE5A-86F3-4157-A7D7-C8D7C9B5210D}" parentId="{D1D6F899-DFAD-40F7-8B42-05DFE1C147B9}">
+    <text>All the books they read for the year</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5A040E-BCD9-4981-8776-C6AC1FF2B344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5A040E-BCD9-4981-8776-C6AC1FF2B344}">
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.1796875" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -10607,8 +10634,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10617,7 +10645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B220654-99E9-4785-B39B-DADF9CF422F2}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E32" sqref="A27:E32"/>
     </sheetView>
   </sheetViews>
@@ -11185,8 +11213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7287D51-9179-4F14-9335-F867B7000EB5}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -11502,8 +11530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC7EA49-79AF-491B-B480-854A14D66221}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -11706,7 +11734,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11720,7 +11748,7 @@
   <dimension ref="A1:E6596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C15:C16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
